--- a/biology/Microbiologie/Spathidiida/Spathidiida.xlsx
+++ b/biology/Microbiologie/Spathidiida/Spathidiida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spathidiida sont un ordre de Ciliés de la classe des Gymnostomatea ou des Litostomatea selon la classification.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 novembre 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 novembre 2022) :
 Actinobolinidae Kahl, 1930
 Apertospathulidae Foissner, Xu &amp; Kreutz, 2005
 Arcuospathidiidae Foissner &amp; Xu, 2007
@@ -550,9 +564,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Pseudoholophryida a été créé en 1988 par les botanistes et époux autrichiens Wilhelm Foissner (d) (1948-2020) et Ilse Foissner (d)[2],[3]. Ils rangent cet ordre dans la classe des Litostomatea.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Pseudoholophryida a été créé en 1988 par les botanistes et époux autrichiens Wilhelm Foissner (d) (1948-2020) et Ilse Foissner (d),. Ils rangent cet ordre dans la classe des Litostomatea.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Wilhelm Foissner et Ilse Foissner, « The Fine Structure of Fuscheria terricola Berger et al., 1983 and a Proposed New Classification of the Subclass Haptoria Corliss, 1974 (Ciliophora, Litostomatea) », Archiv für Protistenkunde, Elsevier, vol. 135, nos 1-4,‎ janvier 1988, p. 213-235 (ISSN 0003-9365 et 2213-5553, OCLC 4649431785, BNF 37573399, DOI 10.1016/S0003-9365(88)80070-8)</t>
         </is>
